--- a/medicine/Enfance/Joseph_Reyre/Joseph_Reyre.xlsx
+++ b/medicine/Enfance/Joseph_Reyre/Joseph_Reyre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abbé Joseph Reyre (1735-1812) était un jésuite et écrivain français, spécialisé dans la littérature de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Eyguières en Provence, il devint membre de la compagnie de Jésus et enseigne au collège de Lyon, puis devient préfet de celui d'Aix. 
 Après la suppression des jésuites, il enseigna les humanités à Carpentras, puis se fixa à Paris en 1785 où il s'établit dans la communauté des Eudistes. 
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a fait plusieurs ouvrages consacrés à l'éducation, entre autres : 
 le Mentor des enfants, recueil d'instructions, de traits d'histoire et de fables, souvent réimprimé ;
